--- a/GridSort.xlsx
+++ b/GridSort.xlsx
@@ -489,1376 +489,1372 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 304.417]</t>
+          <t>(0.0, 365.3]</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>237</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>356</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>348</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="D11" t="n">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="F11" t="n">
-        <v>327</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>(304.417, 608.833]</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>(365.3, 730.6]</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>358</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>261</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="D18" t="n">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
-        <v>435</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F19" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="D20" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="F20" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="D21" t="n">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="F21" t="n">
-        <v>368</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>(608.833, 913.25]</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D23" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E23" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F23" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="D24" t="n">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="E24" t="n">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="F24" t="n">
-        <v>176</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>(730.6, 1095.9]</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>434</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>434</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
-        <v>434</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>434</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="D29" t="n">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="F29" t="n">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="F31" t="n">
-        <v>291</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>(913.25, 1217.667]</t>
-        </is>
-      </c>
+      <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="F32" t="n">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E33" t="n">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="F33" t="n">
-        <v>195</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="D34" t="n">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="E34" t="n">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="F34" t="n">
-        <v>322</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="D35" t="n">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="E35" t="n">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="F35" t="n">
-        <v>198</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="D36" t="n">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="E36" t="n">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="F36" t="n">
-        <v>450</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E37" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F37" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>(1095.9, 1461.2]</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>340</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="D40" t="n">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="E40" t="n">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="F40" t="n">
-        <v>282</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="D41" t="n">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="E41" t="n">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="F41" t="n">
-        <v>341</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>(1217.667, 1522.083]</t>
-        </is>
-      </c>
+      <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D42" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E42" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F42" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D43" t="n">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="E43" t="n">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="F43" t="n">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="D44" t="n">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="E44" t="n">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="F44" t="n">
-        <v>367</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="D45" t="n">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="E45" t="n">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="F45" t="n">
-        <v>234</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>485</v>
+        <v>127</v>
       </c>
       <c r="D46" t="n">
-        <v>485</v>
+        <v>127</v>
       </c>
       <c r="E46" t="n">
-        <v>485</v>
+        <v>127</v>
       </c>
       <c r="F46" t="n">
-        <v>485</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="E47" t="n">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="F47" t="n">
-        <v>116</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>378</v>
+        <v>156</v>
       </c>
       <c r="D48" t="n">
-        <v>378</v>
+        <v>156</v>
       </c>
       <c r="E48" t="n">
-        <v>378</v>
+        <v>156</v>
       </c>
       <c r="F48" t="n">
-        <v>378</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="D49" t="n">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="E49" t="n">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="F49" t="n">
-        <v>217</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>(1461.2, 1826.5]</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>548</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>548</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>548</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>548</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="E51" t="n">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
-        <v>587</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>(1522.083, 1826.5]</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="D52" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="E52" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F52" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D53" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="E53" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="F53" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="D54" t="n">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="E54" t="n">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="F54" t="n">
-        <v>306</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="D55" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="E55" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="F55" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>411</v>
+        <v>98</v>
       </c>
       <c r="D56" t="n">
-        <v>411</v>
+        <v>98</v>
       </c>
       <c r="E56" t="n">
-        <v>411</v>
+        <v>98</v>
       </c>
       <c r="F56" t="n">
-        <v>411</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D57" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F57" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="D58" t="n">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="E58" t="n">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="F58" t="n">
-        <v>393</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D59" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E59" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F59" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="D60" t="n">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="E60" t="n">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="F60" t="n">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>631</v>
+        <v>198</v>
       </c>
       <c r="D61" t="n">
-        <v>631</v>
+        <v>198</v>
       </c>
       <c r="E61" t="n">
-        <v>631</v>
+        <v>198</v>
       </c>
       <c r="F61" t="n">
-        <v>631</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>(1826.5, 2130.917]</t>
+          <t>(1826.5, 2191.8]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="E62" t="n">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="F62" t="n">
-        <v>232</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="E63" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="F63" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="D64" t="n">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="E64" t="n">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="F64" t="n">
-        <v>292</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="D65" t="n">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="E65" t="n">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="F65" t="n">
-        <v>335</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>465</v>
+        <v>113</v>
       </c>
       <c r="D66" t="n">
-        <v>465</v>
+        <v>113</v>
       </c>
       <c r="E66" t="n">
-        <v>465</v>
+        <v>113</v>
       </c>
       <c r="F66" t="n">
-        <v>465</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D67" t="n">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E67" t="n">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="F67" t="n">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="D68" t="n">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="E68" t="n">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="F68" t="n">
-        <v>419</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1878,907 +1874,903 @@
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="D70" t="n">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="E70" t="n">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="F70" t="n">
-        <v>319</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>511</v>
+        <v>190</v>
       </c>
       <c r="D71" t="n">
-        <v>511</v>
+        <v>190</v>
       </c>
       <c r="E71" t="n">
-        <v>511</v>
+        <v>190</v>
       </c>
       <c r="F71" t="n">
-        <v>511</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>(2130.917, 2435.333]</t>
-        </is>
-      </c>
+      <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="D72" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="E72" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D73" t="n">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E73" t="n">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F73" t="n">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>(2191.8, 2557.1]</t>
+        </is>
+      </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="D74" t="n">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="E74" t="n">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="F74" t="n">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>365</v>
+        <v>68</v>
       </c>
       <c r="D75" t="n">
-        <v>365</v>
+        <v>68</v>
       </c>
       <c r="E75" t="n">
-        <v>365</v>
+        <v>68</v>
       </c>
       <c r="F75" t="n">
-        <v>365</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>441</v>
+        <v>26</v>
       </c>
       <c r="D76" t="n">
-        <v>441</v>
+        <v>26</v>
       </c>
       <c r="E76" t="n">
-        <v>441</v>
+        <v>26</v>
       </c>
       <c r="F76" t="n">
-        <v>441</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="D77" t="n">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="E77" t="n">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="F77" t="n">
-        <v>216</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>539</v>
+        <v>141</v>
       </c>
       <c r="D78" t="n">
-        <v>539</v>
+        <v>141</v>
       </c>
       <c r="E78" t="n">
-        <v>539</v>
+        <v>141</v>
       </c>
       <c r="F78" t="n">
-        <v>539</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="D79" t="n">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="E79" t="n">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="F79" t="n">
-        <v>386</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>511</v>
+        <v>181</v>
       </c>
       <c r="D80" t="n">
-        <v>511</v>
+        <v>181</v>
       </c>
       <c r="E80" t="n">
-        <v>511</v>
+        <v>181</v>
       </c>
       <c r="F80" t="n">
-        <v>511</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="D81" t="n">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="E81" t="n">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="F81" t="n">
-        <v>433</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>(2435.333, 2739.75]</t>
-        </is>
-      </c>
+      <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="D82" t="n">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="E82" t="n">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="F82" t="n">
-        <v>211</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="D83" t="n">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="E83" t="n">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="F83" t="n">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="D84" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="E84" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="F84" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="D85" t="n">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="E85" t="n">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="F85" t="n">
-        <v>406</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n"/>
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>(2557.1, 2922.4]</t>
+        </is>
+      </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>487</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
-        <v>487</v>
+        <v>36</v>
       </c>
       <c r="E86" t="n">
-        <v>487</v>
+        <v>36</v>
       </c>
       <c r="F86" t="n">
-        <v>487</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="D87" t="n">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="E87" t="n">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="F87" t="n">
-        <v>303</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="D88" t="n">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="E88" t="n">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="F88" t="n">
-        <v>434</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>369</v>
+        <v>87</v>
       </c>
       <c r="D89" t="n">
-        <v>369</v>
+        <v>87</v>
       </c>
       <c r="E89" t="n">
-        <v>369</v>
+        <v>87</v>
       </c>
       <c r="F89" t="n">
-        <v>369</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>476</v>
+        <v>146</v>
       </c>
       <c r="D90" t="n">
-        <v>476</v>
+        <v>146</v>
       </c>
       <c r="E90" t="n">
-        <v>476</v>
+        <v>146</v>
       </c>
       <c r="F90" t="n">
-        <v>476</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="D91" t="n">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="E91" t="n">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="F91" t="n">
-        <v>397</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>(2739.75, 3044.167]</t>
-        </is>
-      </c>
+      <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="D92" t="n">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="E92" t="n">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="F92" t="n">
-        <v>256</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="D93" t="n">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="E93" t="n">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="F93" t="n">
-        <v>191</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="D94" t="n">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="E94" t="n">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="F94" t="n">
-        <v>221</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="D95" t="n">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="E95" t="n">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="F95" t="n">
-        <v>443</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>476</v>
+        <v>118</v>
       </c>
       <c r="D96" t="n">
-        <v>476</v>
+        <v>118</v>
       </c>
       <c r="E96" t="n">
-        <v>476</v>
+        <v>118</v>
       </c>
       <c r="F96" t="n">
-        <v>476</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="D97" t="n">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="E97" t="n">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="F97" t="n">
-        <v>447</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>(2922.4, 3287.7]</t>
+        </is>
+      </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="D98" t="n">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="E98" t="n">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="F98" t="n">
-        <v>284</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="D99" t="n">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="E99" t="n">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="F99" t="n">
-        <v>366</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>391</v>
+        <v>86</v>
       </c>
       <c r="D100" t="n">
-        <v>391</v>
+        <v>86</v>
       </c>
       <c r="E100" t="n">
-        <v>391</v>
+        <v>86</v>
       </c>
       <c r="F100" t="n">
-        <v>391</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="D101" t="n">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="E101" t="n">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="F101" t="n">
-        <v>378</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>(3044.167, 3348.583]</t>
-        </is>
-      </c>
+      <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="D102" t="n">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="E102" t="n">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="F102" t="n">
-        <v>248</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="D103" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="E103" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="D104" t="n">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E104" t="n">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="F104" t="n">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D106" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E106" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F106" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="D107" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="E107" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="F107" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D108" t="n">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="E108" t="n">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="F108" t="n">
-        <v>170</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D109" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E109" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F109" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n"/>
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>(3287.7, 3653.0]</t>
+        </is>
+      </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(0.0, 304.75]</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E110" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F110" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(304.75, 609.5]</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D111" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E111" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F111" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>(3348.583, 3653.0]</t>
-        </is>
-      </c>
+      <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>(0.0, 365.7]</t>
+          <t>(609.5, 914.25]</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="inlineStr">
         <is>
-          <t>(365.7, 731.4]</t>
+          <t>(914.25, 1219.0]</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>(731.4, 1097.1]</t>
+          <t>(1219.0, 1523.75]</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2798,7 +2790,7 @@
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>(1097.1, 1462.8]</t>
+          <t>(1523.75, 1828.5]</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2818,7 +2810,7 @@
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>(1462.8, 1828.5]</t>
+          <t>(1828.5, 2133.25]</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2838,7 +2830,7 @@
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>(1828.5, 2194.2]</t>
+          <t>(2133.25, 2438.0]</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2858,7 +2850,7 @@
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>(2194.2, 2559.9]</t>
+          <t>(2438.0, 2742.75]</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2878,7 +2870,7 @@
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>(2559.9, 2925.6]</t>
+          <t>(2742.75, 3047.5]</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2898,7 +2890,7 @@
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>(2925.6, 3291.3]</t>
+          <t>(3047.5, 3352.25]</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2918,7 +2910,7 @@
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>(3291.3, 3657.0]</t>
+          <t>(3352.25, 3657.0]</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2935,19 +2927,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A112:A121"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A110:A121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
